--- a/workfile/锐安项目文档/问题清单/0927/移动端问题反馈1031.xlsx
+++ b/workfile/锐安项目文档/问题清单/0927/移动端问题反馈1031.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="考勤打卡问题列表" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="假期明细" sheetId="6" r:id="rId4"/>
     <sheet name="日报功能问题列表" sheetId="3" r:id="rId5"/>
     <sheet name="待办问题" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="188">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -674,6 +675,100 @@
    早间未打卡检验数据库其他用户并未出现此问题，继续跟踪观察，建议提供用户使用习惯
    午间未看到其打卡信息的原因是用户的缓存数据在当时查看时尚未同步至服务器，之后经检查，用户上午下班及下午上班的打卡存在在数据库之中
    目前关于用户操作日志的记录，ios需使用v2.0.0版本，安卓端需使用v2.2.1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日报-费用信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">日报提交校验时，发票过多显示字符串超过50字后校验不通过的问题
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改过程中发现存在其他校验问题，相关预算费用的校验存在问题，将在日报功能问题修改后继续修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">费用信息自动回显的机票及滴滴信息在填报后，依旧自动出现在后续的日报填写中
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于此处相关逻辑需要进行梳理，相关日报及不同类型费用的逻辑需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈子瑶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前附件图片可进行预览，下载文件存在问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除时修改费用类状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏亚楠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考勤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田总考勤打卡20191113日下午下班打卡有时间无地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田金华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行修改，将之前由于腾讯地图接口，网络等各方面原因导致的未获取到地点信息，在获取信息后更新数据库中之前未获取到的信息地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日报-费用信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺失滴滴，酒店，飞机票通过票据查询其各自的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈子瑶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日报考勤审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动端审批日报和考勤补登，会出现两条一样的数据，审批了其中一条数据，两条数据都消失了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题偶发且在测试环境经测试未能复现，继续追踪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -733,7 +828,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -752,8 +847,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -787,11 +888,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -857,6 +971,29 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1733,10 +1870,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1839,13 +1976,71 @@
       </c>
       <c r="J3" s="5"/>
     </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" s="4">
+        <v>43783</v>
+      </c>
+      <c r="H4" s="4">
+        <v>43784</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5" s="44">
+        <v>43787</v>
+      </c>
+      <c r="H5" s="45"/>
+      <c r="I5" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="J5" s="42"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D4:D5">
       <formula1>"BUG,需求"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
       <formula1>"未处理,处理中,已处理"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2070,10 +2265,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2173,13 +2368,40 @@
       </c>
       <c r="J3" s="23"/>
     </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="39">
+        <v>43768</v>
+      </c>
+      <c r="H4" s="39">
+        <v>43787</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="J4" s="38"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E4">
       <formula1>"未处理,处理中,已处理"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4">
       <formula1>"BUG,需求"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2190,10 +2412,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2600,7 +2822,7 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="3">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2631,7 +2853,7 @@
     </row>
     <row r="15" spans="1:10" s="14" customFormat="1" ht="27">
       <c r="A15" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>125</v>
@@ -2663,7 +2885,7 @@
     </row>
     <row r="16" spans="1:10" s="14" customFormat="1" ht="40.5">
       <c r="A16" s="9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>125</v>
@@ -2695,7 +2917,7 @@
     </row>
     <row r="17" spans="1:10" s="14" customFormat="1" ht="54">
       <c r="A17" s="9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>125</v>
@@ -2727,7 +2949,7 @@
     </row>
     <row r="18" spans="1:10" s="14" customFormat="1" ht="27">
       <c r="A18" s="9">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>125</v>
@@ -2759,7 +2981,7 @@
     </row>
     <row r="19" spans="1:10" s="14" customFormat="1" ht="27">
       <c r="A19" s="9">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>136</v>
@@ -2789,7 +3011,7 @@
     </row>
     <row r="20" spans="1:10" s="14" customFormat="1" ht="27">
       <c r="A20" s="9">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>136</v>
@@ -2821,7 +3043,7 @@
     </row>
     <row r="21" spans="1:10" s="14" customFormat="1" ht="40.5">
       <c r="A21" s="9">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>136</v>
@@ -2853,7 +3075,7 @@
     </row>
     <row r="22" spans="1:10" s="14" customFormat="1" ht="54">
       <c r="A22" s="9">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>136</v>
@@ -2885,7 +3107,7 @@
     </row>
     <row r="23" spans="1:10" s="14" customFormat="1" ht="67.5">
       <c r="A23" s="9">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>136</v>
@@ -2917,7 +3139,7 @@
     </row>
     <row r="24" spans="1:10" s="14" customFormat="1" ht="40.5">
       <c r="A24" s="9">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>136</v>
@@ -2949,7 +3171,7 @@
     </row>
     <row r="25" spans="1:10" s="14" customFormat="1">
       <c r="A25" s="9">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>149</v>
@@ -2980,8 +3202,8 @@
       </c>
     </row>
     <row r="26" spans="1:10" s="26" customFormat="1" ht="27">
-      <c r="A26" s="23">
-        <v>13</v>
+      <c r="A26" s="9">
+        <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>125</v>
@@ -3009,13 +3231,163 @@
         <v>128</v>
       </c>
     </row>
+    <row r="27" spans="1:10" ht="27">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="32">
+        <v>43749</v>
+      </c>
+      <c r="H27" s="32"/>
+      <c r="I27" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="40.5">
+      <c r="A28" s="9">
+        <v>27</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="36">
+        <v>43773</v>
+      </c>
+      <c r="H28" s="36">
+        <v>43778</v>
+      </c>
+      <c r="I28" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="J28" s="37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="40.5">
+      <c r="A29" s="9">
+        <v>28</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="36">
+        <v>43773</v>
+      </c>
+      <c r="H29" s="36">
+        <v>43776</v>
+      </c>
+      <c r="I29" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="J29" s="33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30" s="4">
+        <v>43780</v>
+      </c>
+      <c r="H30" s="4">
+        <v>43784</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="G31" s="44">
+        <v>43781</v>
+      </c>
+      <c r="H31" s="44">
+        <v>43784</v>
+      </c>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1194">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1191">
       <formula1>"未处理,处理中,已处理"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1194">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1191">
       <formula1>"BUG,需求"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3311,4 +3683,18 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>